--- a/database2.xlsx
+++ b/database2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pCloudFolder\0_ToProcess\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pCloudFolder\Repositories\Databaseroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B686DF39-699F-44AA-9919-E8B6B2CC0F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6159453-D4C3-4B1F-9786-ED628C3AFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="805" activeTab="3" xr2:uid="{E0BA6ECE-88F1-4BC2-BB8D-A7B4BEF54140}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="805" activeTab="8" xr2:uid="{E0BA6ECE-88F1-4BC2-BB8D-A7B4BEF54140}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="CartItem" sheetId="5" r:id="rId5"/>
     <sheet name="Shipping" sheetId="6" r:id="rId6"/>
     <sheet name="Status" sheetId="7" r:id="rId7"/>
-    <sheet name="ShopSales" sheetId="8" r:id="rId8"/>
+    <sheet name="CatSales" sheetId="10" r:id="rId8"/>
+    <sheet name="ShopSales" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="271">
   <si>
     <t>Rich Dad Poor Dad</t>
   </si>
@@ -775,21 +776,6 @@
     <t>CARTID</t>
   </si>
   <si>
-    <t>CARTITEMID</t>
-  </si>
-  <si>
-    <t>ADVERTISEMENTID</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>OPTION1</t>
-  </si>
-  <si>
-    <t>OPTION2</t>
-  </si>
-  <si>
     <t>RANGEID</t>
   </si>
   <si>
@@ -854,6 +840,24 @@
   </si>
   <si>
     <t>SHIPPINGNUM</t>
+  </si>
+  <si>
+    <t>CATSALESID</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>Aug</t>
   </si>
 </sst>
 </file>
@@ -863,7 +867,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +878,12 @@
     <font>
       <sz val="11"/>
       <name val="Dialog"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -896,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -907,6 +917,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,13 +1382,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1416,7 +1434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="29">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -2299,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3912F-E34B-4B05-B92E-6A9ACE735A89}">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2447,17 +2465,19 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>60</v>
+      <c r="E2">
+        <v>100</v>
       </c>
       <c r="F2" s="3">
-        <v>50.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>6.5</v>
+        <f>E2+G2+H2</f>
+        <v>123.17</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
       </c>
       <c r="H2" s="3">
-        <v>3</v>
+        <f>(G2+E2)*13/100</f>
+        <v>14.17</v>
       </c>
       <c r="I2" s="5">
         <v>45141.979224537034</v>
@@ -2543,7 +2563,7 @@
         <v>4002</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>3002</v>
@@ -2551,17 +2571,19 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>41</v>
+      <c r="E3">
+        <v>250</v>
       </c>
       <c r="F3" s="3">
-        <v>34.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4.5</v>
+        <f t="shared" ref="F3:F11" si="0">E3+G3+H3</f>
+        <v>300.58</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <f t="shared" ref="H3:H11" si="1">(G3+E3)*13/100</f>
+        <v>34.58</v>
       </c>
       <c r="I3" s="5">
         <v>45141.979224537034</v>
@@ -2655,17 +2677,19 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <v>299.97000000000003</v>
+      <c r="E4">
+        <v>100</v>
       </c>
       <c r="F4" s="3">
-        <v>299.97000000000003</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>123.17</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14.17</v>
       </c>
       <c r="I4" s="5">
         <v>45141.97923611111</v>
@@ -2759,17 +2783,19 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>52.4</v>
+      <c r="E5">
+        <v>120</v>
       </c>
       <c r="F5" s="3">
-        <v>45.2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5.2</v>
+        <f t="shared" si="0"/>
+        <v>148.03</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>17.03</v>
       </c>
       <c r="I5" s="5">
         <v>45141.97923611111</v>
@@ -2863,17 +2889,19 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>20</v>
+      <c r="E6">
+        <v>40</v>
       </c>
       <c r="F6" s="3">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>51.980000000000004</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.98</v>
       </c>
       <c r="I6" s="5">
         <v>45141.97923611111</v>
@@ -2967,17 +2995,19 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <v>78.599999999999994</v>
+      <c r="E7">
+        <v>10000</v>
       </c>
       <c r="F7" s="3">
-        <v>67.8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>7.8</v>
+        <f t="shared" si="0"/>
+        <v>11333.9</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1303.9000000000001</v>
       </c>
       <c r="I7" s="5">
         <v>45141.97923611111</v>
@@ -3071,17 +3101,19 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>92.2</v>
+      <c r="E8">
+        <v>70</v>
       </c>
       <c r="F8" s="3">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9.1</v>
+        <f t="shared" si="0"/>
+        <v>89.27</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
       </c>
       <c r="H8" s="3">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>10.27</v>
       </c>
       <c r="I8" s="5">
         <v>45141.97923611111</v>
@@ -3167,7 +3199,7 @@
         <v>4008</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>3008</v>
@@ -3175,17 +3207,19 @@
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>129.99</v>
+      <c r="E9">
+        <v>40</v>
       </c>
       <c r="F9" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>51.980000000000004</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.98</v>
       </c>
       <c r="I9" s="5">
         <v>45141.97923611111</v>
@@ -3279,17 +3313,19 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>66</v>
+      <c r="E10">
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>56.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>240.69</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>27.69</v>
       </c>
       <c r="I10" s="5">
         <v>45141.97923611111</v>
@@ -3383,17 +3419,19 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <v>99.98</v>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11" s="3">
-        <v>99.98</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.08</v>
       </c>
       <c r="I11" s="5">
         <v>45141.97923611111</v>
@@ -3474,17 +3512,33 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:40">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D17:D18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10562A4B-566F-4573-93DA-E0F3E261435B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3493,233 +3547,263 @@
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>5002</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>4001</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
-      <c r="C2">
-        <v>25.5</v>
-      </c>
       <c r="D2">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="E2">
-        <v>4005</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>5003</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>4002</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
-      <c r="C3">
-        <v>15.75</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="E3">
-        <v>4005</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>5004</v>
+        <v>150</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>4002</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
       <c r="D4">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="E4">
-        <v>4006</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>5005</v>
+        <v>100</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4003</v>
       </c>
       <c r="B5">
+        <v>2003</v>
+      </c>
+      <c r="D5">
+        <v>1003</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>4004</v>
+      </c>
+      <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C5">
-        <v>12.25</v>
-      </c>
-      <c r="D5">
+      <c r="D6">
+        <v>1004</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>4006</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5006</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>4004</v>
+      </c>
+      <c r="B7">
+        <v>2004</v>
+      </c>
+      <c r="D7">
+        <v>1004</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>4005</v>
+      </c>
+      <c r="B8">
         <v>2005</v>
       </c>
-      <c r="C6">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4007</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5007</v>
-      </c>
-      <c r="B7">
-        <v>2006</v>
-      </c>
-      <c r="C7">
-        <v>5.5</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4007</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>5008</v>
-      </c>
-      <c r="B8">
-        <v>2007</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
       <c r="D8">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="E8">
-        <v>4008</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>5009</v>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>4006</v>
       </c>
       <c r="B9">
-        <v>2008</v>
-      </c>
-      <c r="C9">
-        <v>7.99</v>
+        <v>2006</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1010</v>
       </c>
       <c r="E9">
-        <v>4008</v>
+        <v>10000</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>5010</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>4007</v>
       </c>
       <c r="B10">
-        <v>2009</v>
-      </c>
-      <c r="C10">
-        <v>30.75</v>
+        <v>2007</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1009</v>
       </c>
       <c r="E10">
-        <v>4009</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>4008</v>
+      </c>
+      <c r="B11">
+        <v>2008</v>
+      </c>
+      <c r="D11">
+        <v>1008</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>5011</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>4009</v>
+      </c>
+      <c r="B12">
+        <v>2009</v>
+      </c>
+      <c r="D12">
+        <v>1006</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>4010</v>
+      </c>
+      <c r="B13">
         <v>2010</v>
       </c>
-      <c r="C11">
-        <v>9.49</v>
-      </c>
-      <c r="D11">
+      <c r="D13">
+        <v>1001</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>4009</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="17" spans="9:10">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="9:10">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="9:10">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="9:10">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3729,23 +3813,23 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="B1" sqref="B1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3903,25 +3987,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
         <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3938,13 +4022,13 @@
         <v>45142</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3961,13 +4045,13 @@
         <v>45142</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3984,7 +4068,7 @@
         <v>45142</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4001,13 +4085,13 @@
         <v>45142</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4024,7 +4108,7 @@
         <v>45142</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4041,13 +4125,13 @@
         <v>45142</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" t="s">
         <v>255</v>
-      </c>
-      <c r="G7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4064,13 +4148,13 @@
         <v>45142</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4087,7 +4171,7 @@
         <v>45142</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4104,13 +4188,13 @@
         <v>45142</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4127,7 +4211,7 @@
         <v>45142</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4136,11 +4220,236 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6522DF0-77DB-41ED-8DC2-5C90505F1824}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B8B407-0775-465B-9232-3FA1C6F1FF5C}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7">
+        <v>8001</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7">
+        <v>8002</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>100</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7">
+        <v>8003</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>350</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7">
+        <v>8004</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>120</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7">
+        <v>8005</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>40</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7">
+        <v>8006</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>200</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7">
+        <v>8007</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1008</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7">
+        <v>8008</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1009</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9">
+        <v>2023</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>70</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7">
+        <v>8009</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6522DF0-77DB-41ED-8DC2-5C90505F1824}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4153,86 +4462,6 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>3001</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3002</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3003</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3004</v>
-      </c>
-      <c r="B5">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>3005</v>
-      </c>
-      <c r="B6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3006</v>
-      </c>
-      <c r="B7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>3007</v>
-      </c>
-      <c r="B8">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>3008</v>
-      </c>
-      <c r="B9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>3009</v>
-      </c>
-      <c r="B10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>3010</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database2.xlsx
+++ b/database2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pCloudFolder\Repositories\Databaseroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6159453-D4C3-4B1F-9786-ED628C3AFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A6FF4A-F685-47D6-812D-03A2C462950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="805" activeTab="8" xr2:uid="{E0BA6ECE-88F1-4BC2-BB8D-A7B4BEF54140}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="805" activeTab="4" xr2:uid="{E0BA6ECE-88F1-4BC2-BB8D-A7B4BEF54140}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="271">
   <si>
     <t>Rich Dad Poor Dad</t>
   </si>
@@ -906,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -918,12 +918,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0CF41E-815B-4CD6-BB74-852B4908D5D9}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1854,7 +1853,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2319,9 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3912F-E34B-4B05-B92E-6A9ACE735A89}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3513,16 +3510,16 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="D14" s="6"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:40">
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3537,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10562A4B-566F-4573-93DA-E0F3E261435B}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3554,12 +3551,6 @@
       <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
@@ -3568,15 +3559,6 @@
       <c r="B2">
         <v>2001</v>
       </c>
-      <c r="D2">
-        <v>1002</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
@@ -3585,15 +3567,7 @@
       <c r="B3">
         <v>2002</v>
       </c>
-      <c r="D3">
-        <v>1003</v>
-      </c>
-      <c r="E3">
-        <v>150</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3</v>
-      </c>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3">
@@ -3602,13 +3576,7 @@
       <c r="B4">
         <v>2003</v>
       </c>
-      <c r="D4">
-        <v>1003</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
@@ -3617,13 +3585,7 @@
       <c r="B5">
         <v>2003</v>
       </c>
-      <c r="D5">
-        <v>1003</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
@@ -3632,15 +3594,7 @@
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="D6">
-        <v>1004</v>
-      </c>
-      <c r="E6">
-        <v>60</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
@@ -3649,13 +3603,7 @@
       <c r="B7">
         <v>2004</v>
       </c>
-      <c r="D7">
-        <v>1004</v>
-      </c>
-      <c r="E7">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3">
@@ -3664,15 +3612,6 @@
       <c r="B8">
         <v>2005</v>
       </c>
-      <c r="D8">
-        <v>1005</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3">
@@ -3681,15 +3620,6 @@
       <c r="B9">
         <v>2006</v>
       </c>
-      <c r="D9">
-        <v>1010</v>
-      </c>
-      <c r="E9">
-        <v>10000</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
@@ -3698,15 +3628,6 @@
       <c r="B10">
         <v>2007</v>
       </c>
-      <c r="D10">
-        <v>1009</v>
-      </c>
-      <c r="E10">
-        <v>70</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
@@ -3715,15 +3636,6 @@
       <c r="B11">
         <v>2008</v>
       </c>
-      <c r="D11">
-        <v>1008</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">
@@ -3732,15 +3644,6 @@
       <c r="B12">
         <v>2009</v>
       </c>
-      <c r="D12">
-        <v>1006</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">
@@ -3748,15 +3651,6 @@
       </c>
       <c r="B13">
         <v>2010</v>
-      </c>
-      <c r="D13">
-        <v>1001</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="9:10">
@@ -4248,13 +4142,13 @@
       <c r="F1" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>8001</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
@@ -4266,16 +4160,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>8002</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
@@ -4287,16 +4181,16 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>8003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
@@ -4308,16 +4202,16 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4">
         <v>350</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>8004</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
@@ -4329,16 +4223,16 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5">
         <v>120</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>8005</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
@@ -4350,16 +4244,16 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>8006</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
@@ -4371,16 +4265,16 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <v>200</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>8007</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1008</v>
       </c>
       <c r="C8" t="s">
@@ -4392,16 +4286,16 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8008</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1009</v>
       </c>
       <c r="C9" t="s">
@@ -4413,16 +4307,16 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>70</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8009</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1010</v>
       </c>
       <c r="C10" t="s">
@@ -4434,7 +4328,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>10000</v>
       </c>
     </row>
@@ -4448,7 +4342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6522DF0-77DB-41ED-8DC2-5C90505F1824}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
